--- a/data/metabolism_scaling_data.xlsx
+++ b/data/metabolism_scaling_data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\storage-og.slu.se\home$\mxli0002\My Documents\Max SLU\Papers\Scaling_exponents_temp\Data_exploration\Metabolism\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R_STUDIO_PROJECTS\scaling\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1389" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1405" uniqueCount="303">
   <si>
     <t>a</t>
   </si>
@@ -152,9 +152,6 @@
     <t>NA</t>
   </si>
   <si>
-    <t>Routine; max size assumed L-W regression: a=0.01, b=3</t>
-  </si>
-  <si>
     <t>0.053</t>
   </si>
   <si>
@@ -885,6 +882,57 @@
   </si>
   <si>
     <t>mg O2/h (constant on log scale)</t>
+  </si>
+  <si>
+    <t>Routine; max size assumed L-W regression: a=0.01. b=3</t>
+  </si>
+  <si>
+    <t>-0.759</t>
+  </si>
+  <si>
+    <t>-1.538</t>
+  </si>
+  <si>
+    <t>-0.982</t>
+  </si>
+  <si>
+    <t>-0.539</t>
+  </si>
+  <si>
+    <t>-0.287</t>
+  </si>
+  <si>
+    <t>-1.457</t>
+  </si>
+  <si>
+    <t>-2.3175</t>
+  </si>
+  <si>
+    <t>-2.13492</t>
+  </si>
+  <si>
+    <t>-2.9078</t>
+  </si>
+  <si>
+    <t>-1.60295</t>
+  </si>
+  <si>
+    <t>-4.21035</t>
+  </si>
+  <si>
+    <t>-2.40745</t>
+  </si>
+  <si>
+    <t>-1.13423</t>
+  </si>
+  <si>
+    <t>-1.59091</t>
+  </si>
+  <si>
+    <t>-5.01099</t>
+  </si>
+  <si>
+    <t>-3.1571</t>
   </si>
 </sst>
 </file>
@@ -1257,7 +1305,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K14" sqref="K14"/>
+      <selection pane="bottomLeft" activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1352,10 +1400,10 @@
         <v>24</v>
       </c>
       <c r="V1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>13</v>
@@ -1423,10 +1471,10 @@
         <v>41</v>
       </c>
       <c r="V2" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="W2" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="X2" s="4" t="s">
         <v>30</v>
@@ -1435,7 +1483,7 @@
         <v>31</v>
       </c>
       <c r="Z2" s="4" t="s">
-        <v>42</v>
+        <v>286</v>
       </c>
       <c r="AA2" s="4" t="s">
         <v>32</v>
@@ -1494,10 +1542,10 @@
         <v>41</v>
       </c>
       <c r="V3" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="W3" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="X3" s="4" t="s">
         <v>30</v>
@@ -1506,30 +1554,30 @@
         <v>31</v>
       </c>
       <c r="Z3" s="4" t="s">
-        <v>42</v>
+        <v>286</v>
       </c>
       <c r="AA3" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:27" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
-        <v>-0.75900000000000001</v>
+      <c r="A4" s="5" t="s">
+        <v>287</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E4" s="5">
         <v>6</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I4" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="J4" s="5" t="s">
         <v>50</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>51</v>
       </c>
       <c r="K4" s="5" t="s">
         <v>35</v>
@@ -1541,7 +1589,7 @@
         <v>37</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O4" s="4" t="s">
         <v>39</v>
@@ -1565,10 +1613,10 @@
         <v>41</v>
       </c>
       <c r="V4" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="W4" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="X4" s="4" t="s">
         <v>30</v>
@@ -1577,30 +1625,30 @@
         <v>31</v>
       </c>
       <c r="Z4" s="4" t="s">
-        <v>42</v>
+        <v>286</v>
       </c>
       <c r="AA4" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:27" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
-        <v>-1.538</v>
+      <c r="A5" s="5" t="s">
+        <v>288</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E5" s="5">
         <v>9</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I5" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="J5" s="5" t="s">
         <v>50</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>51</v>
       </c>
       <c r="K5" s="5" t="s">
         <v>35</v>
@@ -1612,7 +1660,7 @@
         <v>37</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O5" s="4" t="s">
         <v>39</v>
@@ -1636,10 +1684,10 @@
         <v>41</v>
       </c>
       <c r="V5" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="W5" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="X5" s="4" t="s">
         <v>30</v>
@@ -1648,30 +1696,30 @@
         <v>31</v>
       </c>
       <c r="Z5" s="4" t="s">
-        <v>42</v>
+        <v>286</v>
       </c>
       <c r="AA5" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>-0.98199999999999998</v>
+      <c r="A6" s="4" t="s">
+        <v>289</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E6" s="4">
         <v>12</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I6" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="J6" s="5" t="s">
         <v>50</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>51</v>
       </c>
       <c r="K6" s="5" t="s">
         <v>35</v>
@@ -1683,7 +1731,7 @@
         <v>37</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O6" s="4" t="s">
         <v>39</v>
@@ -1707,10 +1755,10 @@
         <v>41</v>
       </c>
       <c r="V6" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="W6" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="X6" s="4" t="s">
         <v>30</v>
@@ -1719,30 +1767,30 @@
         <v>31</v>
       </c>
       <c r="Z6" s="4" t="s">
-        <v>42</v>
+        <v>286</v>
       </c>
       <c r="AA6" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
-        <v>-0.53900000000000003</v>
+      <c r="A7" s="4" t="s">
+        <v>290</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E7" s="4">
         <v>18</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I7" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="J7" s="5" t="s">
         <v>50</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>51</v>
       </c>
       <c r="K7" s="5" t="s">
         <v>35</v>
@@ -1754,7 +1802,7 @@
         <v>37</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O7" s="4" t="s">
         <v>39</v>
@@ -1778,10 +1826,10 @@
         <v>41</v>
       </c>
       <c r="V7" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="W7" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="X7" s="4" t="s">
         <v>30</v>
@@ -1790,30 +1838,30 @@
         <v>31</v>
       </c>
       <c r="Z7" s="4" t="s">
-        <v>42</v>
+        <v>286</v>
       </c>
       <c r="AA7" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>-0.28699999999999998</v>
+      <c r="A8" s="4" t="s">
+        <v>291</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E8" s="4">
         <v>22</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I8" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="J8" s="5" t="s">
         <v>50</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>51</v>
       </c>
       <c r="K8" s="5" t="s">
         <v>35</v>
@@ -1825,7 +1873,7 @@
         <v>37</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O8" s="4" t="s">
         <v>39</v>
@@ -1849,10 +1897,10 @@
         <v>41</v>
       </c>
       <c r="V8" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="W8" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="X8" s="4" t="s">
         <v>30</v>
@@ -1861,7 +1909,7 @@
         <v>31</v>
       </c>
       <c r="Z8" s="4" t="s">
-        <v>42</v>
+        <v>286</v>
       </c>
       <c r="AA8" s="4" t="s">
         <v>32</v>
@@ -1869,40 +1917,40 @@
     </row>
     <row r="9" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E9" s="4">
         <v>4</v>
       </c>
       <c r="H9" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="J9" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="I9" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="J9" s="2" t="s">
+      <c r="K9" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="L9" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="L9" s="2" t="s">
+      <c r="M9" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="M9" s="2" t="s">
+      <c r="N9" s="4" t="s">
         <v>81</v>
-      </c>
-      <c r="N9" s="4" t="s">
-        <v>82</v>
       </c>
       <c r="O9" s="2" t="s">
         <v>39</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q9" s="2">
         <v>1000</v>
@@ -1917,63 +1965,63 @@
         <v>9</v>
       </c>
       <c r="U9" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="V9" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="W9" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="V9" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="W9" s="7" t="s">
+      <c r="X9" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="X9" s="4" t="s">
+      <c r="Y9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z9" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="Y9" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z9" s="7" t="s">
+      <c r="AA9" s="4" t="s">
         <v>87</v>
-      </c>
-      <c r="AA9" s="4" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E10" s="4">
         <v>8</v>
       </c>
       <c r="H10" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="J10" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="I10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="J10" s="2" t="s">
+      <c r="K10" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="L10" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="L10" s="2" t="s">
+      <c r="M10" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="M10" s="2" t="s">
+      <c r="N10" s="4" t="s">
         <v>81</v>
-      </c>
-      <c r="N10" s="4" t="s">
-        <v>82</v>
       </c>
       <c r="O10" s="2" t="s">
         <v>39</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q10" s="2">
         <v>1000</v>
@@ -1988,64 +2036,64 @@
         <v>9</v>
       </c>
       <c r="U10" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="V10" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="W10" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="V10" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="W10" s="7" t="s">
+      <c r="X10" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="X10" s="4" t="s">
+      <c r="Y10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z10" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="Y10" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z10" s="7" t="s">
+      <c r="AA10" s="4" t="s">
         <v>87</v>
-      </c>
-      <c r="AA10" s="4" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E11" s="4">
         <v>15</v>
       </c>
       <c r="F11" s="8"/>
       <c r="H11" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="J11" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="I11" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="J11" s="2" t="s">
+      <c r="K11" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="K11" s="2" t="s">
+      <c r="L11" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="L11" s="2" t="s">
+      <c r="M11" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="M11" s="2" t="s">
+      <c r="N11" s="4" t="s">
         <v>81</v>
-      </c>
-      <c r="N11" s="4" t="s">
-        <v>82</v>
       </c>
       <c r="O11" s="2" t="s">
         <v>39</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q11" s="2">
         <v>1000</v>
@@ -2060,68 +2108,68 @@
         <v>9</v>
       </c>
       <c r="U11" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="V11" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="W11" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="V11" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="W11" s="7" t="s">
+      <c r="X11" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="X11" s="4" t="s">
+      <c r="Y11" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z11" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="Y11" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z11" s="7" t="s">
+      <c r="AA11" s="4" t="s">
         <v>87</v>
-      </c>
-      <c r="AA11" s="4" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E12" s="4">
         <v>4</v>
       </c>
       <c r="F12" s="8"/>
       <c r="H12" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J12" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="K12" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="K12" s="2" t="s">
+      <c r="L12" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>80</v>
       </c>
       <c r="M12" s="4" t="s">
         <v>37</v>
       </c>
       <c r="N12" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O12" s="2" t="s">
         <v>39</v>
       </c>
       <c r="P12" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q12" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="Q12" s="4" t="s">
-        <v>91</v>
-      </c>
       <c r="R12" s="4" t="s">
         <v>41</v>
       </c>
@@ -2135,65 +2183,65 @@
         <v>41</v>
       </c>
       <c r="V12" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="W12" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="X12" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="X12" s="4" t="s">
+      <c r="Y12" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z12" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="Y12" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z12" s="7" t="s">
+      <c r="AA12" s="4" t="s">
         <v>87</v>
-      </c>
-      <c r="AA12" s="4" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E13" s="4">
         <v>8</v>
       </c>
       <c r="F13" s="8"/>
       <c r="H13" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J13" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="K13" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="K13" s="2" t="s">
+      <c r="L13" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>80</v>
       </c>
       <c r="M13" s="4" t="s">
         <v>37</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O13" s="2" t="s">
         <v>39</v>
       </c>
       <c r="P13" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q13" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="Q13" s="4" t="s">
-        <v>91</v>
-      </c>
       <c r="R13" s="4" t="s">
         <v>41</v>
       </c>
@@ -2207,65 +2255,65 @@
         <v>41</v>
       </c>
       <c r="V13" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="W13" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="X13" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="X13" s="4" t="s">
+      <c r="Y13" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z13" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="Y13" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z13" s="7" t="s">
+      <c r="AA13" s="4" t="s">
         <v>87</v>
-      </c>
-      <c r="AA13" s="4" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E14" s="4">
         <v>15</v>
       </c>
       <c r="F14" s="8"/>
       <c r="H14" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J14" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="K14" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="K14" s="2" t="s">
+      <c r="L14" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>80</v>
       </c>
       <c r="M14" s="4" t="s">
         <v>37</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O14" s="2" t="s">
         <v>39</v>
       </c>
       <c r="P14" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q14" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="Q14" s="4" t="s">
-        <v>91</v>
-      </c>
       <c r="R14" s="4" t="s">
         <v>41</v>
       </c>
@@ -2279,43 +2327,43 @@
         <v>41</v>
       </c>
       <c r="V14" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="W14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="X14" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="X14" s="4" t="s">
+      <c r="Y14" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z14" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="Y14" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z14" s="7" t="s">
+      <c r="AA14" s="4" t="s">
         <v>87</v>
-      </c>
-      <c r="AA14" s="4" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E15" s="4">
         <v>5</v>
       </c>
       <c r="F15" s="8"/>
       <c r="H15" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I15" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="J15" s="4" t="s">
         <v>250</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>251</v>
       </c>
       <c r="K15" s="4" t="s">
         <v>35</v>
@@ -2324,19 +2372,19 @@
         <v>36</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O15" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P15" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="Q15" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R15" s="4">
         <v>10</v>
@@ -2351,43 +2399,43 @@
         <v>41</v>
       </c>
       <c r="V15" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="W15" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="X15" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="X15" s="4" t="s">
+      <c r="Y15" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z15" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="Y15" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z15" s="7" t="s">
+      <c r="AA15" s="4" t="s">
         <v>87</v>
-      </c>
-      <c r="AA15" s="4" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E16" s="4">
         <v>10</v>
       </c>
       <c r="F16" s="8"/>
       <c r="H16" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I16" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="J16" s="4" t="s">
         <v>250</v>
-      </c>
-      <c r="J16" s="4" t="s">
-        <v>251</v>
       </c>
       <c r="K16" s="4" t="s">
         <v>35</v>
@@ -2396,19 +2444,19 @@
         <v>36</v>
       </c>
       <c r="M16" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N16" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O16" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P16" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="Q16" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R16" s="4">
         <v>10</v>
@@ -2423,43 +2471,43 @@
         <v>41</v>
       </c>
       <c r="V16" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="W16" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="X16" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="X16" s="4" t="s">
+      <c r="Y16" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z16" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="Y16" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z16" s="7" t="s">
+      <c r="AA16" s="4" t="s">
         <v>87</v>
-      </c>
-      <c r="AA16" s="4" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E17" s="3">
         <v>15</v>
       </c>
       <c r="F17" s="8"/>
       <c r="H17" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I17" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="J17" s="4" t="s">
         <v>250</v>
-      </c>
-      <c r="J17" s="4" t="s">
-        <v>251</v>
       </c>
       <c r="K17" s="4" t="s">
         <v>35</v>
@@ -2468,19 +2516,19 @@
         <v>36</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N17" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O17" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P17" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="Q17" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R17" s="4">
         <v>10</v>
@@ -2495,43 +2543,43 @@
         <v>41</v>
       </c>
       <c r="V17" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="W17" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="X17" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="X17" s="4" t="s">
+      <c r="Y17" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z17" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="Y17" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z17" s="7" t="s">
+      <c r="AA17" s="4" t="s">
         <v>87</v>
-      </c>
-      <c r="AA17" s="4" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E18" s="3">
         <v>20</v>
       </c>
       <c r="F18" s="8"/>
       <c r="H18" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I18" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="J18" s="4" t="s">
         <v>250</v>
-      </c>
-      <c r="J18" s="4" t="s">
-        <v>251</v>
       </c>
       <c r="K18" s="4" t="s">
         <v>35</v>
@@ -2540,19 +2588,19 @@
         <v>36</v>
       </c>
       <c r="M18" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N18" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O18" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P18" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="Q18" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R18" s="4">
         <v>10</v>
@@ -2567,43 +2615,43 @@
         <v>41</v>
       </c>
       <c r="V18" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="W18" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="X18" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="X18" s="4" t="s">
+      <c r="Y18" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z18" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="Y18" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z18" s="7" t="s">
+      <c r="AA18" s="4" t="s">
         <v>87</v>
-      </c>
-      <c r="AA18" s="4" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E19" s="3">
         <v>23</v>
       </c>
       <c r="F19" s="8"/>
       <c r="H19" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I19" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="J19" s="4" t="s">
         <v>250</v>
-      </c>
-      <c r="J19" s="4" t="s">
-        <v>251</v>
       </c>
       <c r="K19" s="4" t="s">
         <v>35</v>
@@ -2612,19 +2660,19 @@
         <v>36</v>
       </c>
       <c r="M19" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N19" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O19" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P19" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Q19" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="R19" s="4">
         <v>10</v>
@@ -2639,43 +2687,43 @@
         <v>41</v>
       </c>
       <c r="V19" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="W19" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="X19" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="X19" s="4" t="s">
+      <c r="Y19" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z19" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="Y19" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z19" s="7" t="s">
+      <c r="AA19" s="4" t="s">
         <v>87</v>
-      </c>
-      <c r="AA19" s="4" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E20" s="4">
         <v>5</v>
       </c>
       <c r="F20" s="8"/>
       <c r="H20" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="J20" s="4" t="s">
         <v>92</v>
-      </c>
-      <c r="I20" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J20" s="4" t="s">
-        <v>93</v>
       </c>
       <c r="K20" s="4" t="s">
         <v>35</v>
@@ -2684,19 +2732,19 @@
         <v>36</v>
       </c>
       <c r="M20" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N20" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O20" s="4" t="s">
         <v>39</v>
       </c>
       <c r="P20" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q20" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R20" s="4">
         <v>10</v>
@@ -2711,42 +2759,42 @@
         <v>41</v>
       </c>
       <c r="V20" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="W20" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="X20" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="X20" s="4" t="s">
+      <c r="Y20" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z20" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="Y20" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z20" s="7" t="s">
+      <c r="AA20" s="4" t="s">
         <v>87</v>
-      </c>
-      <c r="AA20" s="4" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="21" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E21" s="4">
         <v>10</v>
       </c>
       <c r="H21" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="J21" s="4" t="s">
         <v>92</v>
-      </c>
-      <c r="I21" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J21" s="4" t="s">
-        <v>93</v>
       </c>
       <c r="K21" s="4" t="s">
         <v>35</v>
@@ -2755,19 +2803,19 @@
         <v>36</v>
       </c>
       <c r="M21" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N21" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O21" s="4" t="s">
         <v>39</v>
       </c>
       <c r="P21" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q21" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R21" s="4">
         <v>10</v>
@@ -2782,30 +2830,30 @@
         <v>41</v>
       </c>
       <c r="V21" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="W21" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="X21" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="X21" s="4" t="s">
+      <c r="Y21" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z21" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="Y21" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z21" s="7" t="s">
+      <c r="AA21" s="4" t="s">
         <v>87</v>
-      </c>
-      <c r="AA21" s="4" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="22" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>71</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>72</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -2813,13 +2861,13 @@
         <v>15</v>
       </c>
       <c r="H22" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="J22" s="4" t="s">
         <v>92</v>
-      </c>
-      <c r="I22" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J22" s="4" t="s">
-        <v>93</v>
       </c>
       <c r="K22" s="4" t="s">
         <v>35</v>
@@ -2828,19 +2876,19 @@
         <v>36</v>
       </c>
       <c r="M22" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N22" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O22" s="4" t="s">
         <v>39</v>
       </c>
       <c r="P22" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q22" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R22" s="4">
         <v>10</v>
@@ -2855,30 +2903,30 @@
         <v>41</v>
       </c>
       <c r="V22" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="W22" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="X22" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="X22" s="4" t="s">
+      <c r="Y22" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z22" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="Y22" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z22" s="7" t="s">
+      <c r="AA22" s="4" t="s">
         <v>87</v>
-      </c>
-      <c r="AA22" s="4" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="23" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -2886,13 +2934,13 @@
         <v>20</v>
       </c>
       <c r="H23" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="J23" s="4" t="s">
         <v>92</v>
-      </c>
-      <c r="I23" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J23" s="4" t="s">
-        <v>93</v>
       </c>
       <c r="K23" s="4" t="s">
         <v>35</v>
@@ -2901,19 +2949,19 @@
         <v>36</v>
       </c>
       <c r="M23" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N23" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O23" s="4" t="s">
         <v>39</v>
       </c>
       <c r="P23" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q23" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R23" s="4">
         <v>10</v>
@@ -2928,30 +2976,30 @@
         <v>41</v>
       </c>
       <c r="V23" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="W23" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="X23" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="X23" s="4" t="s">
+      <c r="Y23" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z23" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="Y23" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z23" s="7" t="s">
+      <c r="AA23" s="4" t="s">
         <v>87</v>
-      </c>
-      <c r="AA23" s="4" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="24" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -2959,13 +3007,13 @@
         <v>23</v>
       </c>
       <c r="H24" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="J24" s="4" t="s">
         <v>92</v>
-      </c>
-      <c r="I24" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J24" s="4" t="s">
-        <v>93</v>
       </c>
       <c r="K24" s="4" t="s">
         <v>35</v>
@@ -2974,19 +3022,19 @@
         <v>36</v>
       </c>
       <c r="M24" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N24" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O24" s="4" t="s">
         <v>39</v>
       </c>
       <c r="P24" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q24" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R24" s="4">
         <v>10</v>
@@ -3001,30 +3049,30 @@
         <v>41</v>
       </c>
       <c r="V24" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="W24" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="X24" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="X24" s="4" t="s">
+      <c r="Y24" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z24" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="Y24" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z24" s="7" t="s">
+      <c r="AA24" s="4" t="s">
         <v>87</v>
-      </c>
-      <c r="AA24" s="4" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="25" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -3032,31 +3080,31 @@
         <v>3</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I25" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="J25" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="J25" s="4" t="s">
+      <c r="K25" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="L25" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="K25" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="L25" s="4" t="s">
-        <v>120</v>
-      </c>
       <c r="M25" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N25" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O25" s="4" t="s">
         <v>39</v>
       </c>
       <c r="P25" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="Q25" s="4">
         <v>14500</v>
@@ -3068,36 +3116,36 @@
         <v>25</v>
       </c>
       <c r="T25" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="U25" s="4" t="s">
         <v>41</v>
       </c>
       <c r="V25" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="W25" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="X25" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Y25" s="4" t="s">
         <v>31</v>
       </c>
       <c r="Z25" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA25" s="10" t="s">
         <v>111</v>
-      </c>
-      <c r="AA25" s="10" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="26" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -3105,31 +3153,31 @@
         <v>7</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I26" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="J26" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="J26" s="4" t="s">
+      <c r="K26" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="L26" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="K26" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="L26" s="4" t="s">
-        <v>120</v>
-      </c>
       <c r="M26" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N26" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O26" s="4" t="s">
         <v>39</v>
       </c>
       <c r="P26" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="Q26" s="4">
         <v>14500</v>
@@ -3141,36 +3189,36 @@
         <v>25</v>
       </c>
       <c r="T26" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="U26" s="4" t="s">
         <v>41</v>
       </c>
       <c r="V26" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="W26" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="X26" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Y26" s="4" t="s">
         <v>31</v>
       </c>
       <c r="Z26" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA26" s="10" t="s">
         <v>111</v>
-      </c>
-      <c r="AA26" s="10" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="27" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -3178,31 +3226,31 @@
         <v>10</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I27" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="J27" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="J27" s="4" t="s">
+      <c r="K27" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="L27" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="K27" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="L27" s="4" t="s">
-        <v>120</v>
-      </c>
       <c r="M27" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N27" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O27" s="4" t="s">
         <v>39</v>
       </c>
       <c r="P27" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="Q27" s="4">
         <v>14500</v>
@@ -3214,36 +3262,36 @@
         <v>25</v>
       </c>
       <c r="T27" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="U27" s="4" t="s">
         <v>41</v>
       </c>
       <c r="V27" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="W27" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="X27" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Y27" s="4" t="s">
         <v>31</v>
       </c>
       <c r="Z27" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA27" s="10" t="s">
         <v>111</v>
-      </c>
-      <c r="AA27" s="10" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="28" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -3251,31 +3299,31 @@
         <v>13</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I28" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="J28" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="J28" s="4" t="s">
+      <c r="K28" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="L28" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="K28" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="L28" s="4" t="s">
-        <v>120</v>
-      </c>
       <c r="M28" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N28" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O28" s="4" t="s">
         <v>39</v>
       </c>
       <c r="P28" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="Q28" s="4">
         <v>14500</v>
@@ -3287,66 +3335,66 @@
         <v>25</v>
       </c>
       <c r="T28" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="U28" s="4" t="s">
         <v>41</v>
       </c>
       <c r="V28" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="W28" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="X28" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Y28" s="4" t="s">
         <v>31</v>
       </c>
       <c r="Z28" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA28" s="10" t="s">
         <v>111</v>
-      </c>
-      <c r="AA28" s="10" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="29" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E29" s="3">
         <v>16</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I29" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="J29" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="J29" s="4" t="s">
+      <c r="K29" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="L29" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="K29" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="L29" s="4" t="s">
-        <v>120</v>
-      </c>
       <c r="M29" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N29" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O29" s="4" t="s">
         <v>39</v>
       </c>
       <c r="P29" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="Q29" s="4">
         <v>14500</v>
@@ -3358,66 +3406,66 @@
         <v>25</v>
       </c>
       <c r="T29" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="U29" s="4" t="s">
         <v>41</v>
       </c>
       <c r="V29" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="W29" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="X29" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Y29" s="4" t="s">
         <v>31</v>
       </c>
       <c r="Z29" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA29" s="10" t="s">
         <v>111</v>
-      </c>
-      <c r="AA29" s="10" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="30" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E30" s="3">
         <v>20</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I30" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="J30" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="J30" s="4" t="s">
+      <c r="K30" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="L30" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="K30" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="L30" s="4" t="s">
-        <v>120</v>
-      </c>
       <c r="M30" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N30" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O30" s="4" t="s">
         <v>39</v>
       </c>
       <c r="P30" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="Q30" s="4">
         <v>14500</v>
@@ -3429,66 +3477,66 @@
         <v>25</v>
       </c>
       <c r="T30" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="U30" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="V30" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="W30" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="X30" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y30" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z30" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA30" s="10" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>122</v>
-      </c>
-      <c r="U30" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="V30" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="W30" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="X30" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y30" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z30" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="AA30" s="10" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="31" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="3">
-        <v>-1.4570000000000001</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>123</v>
       </c>
       <c r="E31" s="3">
         <v>5</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I31" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="J31" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="J31" s="4" t="s">
+      <c r="K31" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="L31" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="M31" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="N31" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="O31" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="K31" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="L31" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="M31" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="N31" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="O31" s="4" t="s">
+      <c r="P31" s="4" t="s">
         <v>138</v>
-      </c>
-      <c r="P31" s="4" t="s">
-        <v>139</v>
       </c>
       <c r="Q31" s="4">
         <v>25400</v>
@@ -3503,63 +3551,63 @@
         <v>13</v>
       </c>
       <c r="U31" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="V31" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="W31" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="V31" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="W31" s="4" t="s">
-        <v>141</v>
-      </c>
       <c r="X31" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Y31" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Z31" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA31" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="AA31" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="32" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E32" s="3">
         <v>8</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I32" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="J32" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="J32" s="4" t="s">
+      <c r="K32" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="M32" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="N32" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="O32" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="L32" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="M32" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="N32" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="O32" s="4" t="s">
+      <c r="P32" s="4" t="s">
         <v>138</v>
-      </c>
-      <c r="P32" s="4" t="s">
-        <v>139</v>
       </c>
       <c r="Q32" s="4">
         <v>25400</v>
@@ -3574,63 +3622,63 @@
         <v>13</v>
       </c>
       <c r="U32" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="V32" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="W32" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="V32" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="W32" s="4" t="s">
-        <v>141</v>
-      </c>
       <c r="X32" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Y32" s="4" t="s">
         <v>31</v>
       </c>
       <c r="Z32" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA32" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="AA32" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="33" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E33" s="3">
         <v>11</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I33" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="J33" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="J33" s="4" t="s">
+      <c r="K33" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="L33" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="M33" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="N33" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="O33" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="L33" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="M33" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="N33" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="O33" s="4" t="s">
+      <c r="P33" s="4" t="s">
         <v>138</v>
-      </c>
-      <c r="P33" s="4" t="s">
-        <v>139</v>
       </c>
       <c r="Q33" s="4">
         <v>25400</v>
@@ -3645,63 +3693,63 @@
         <v>13</v>
       </c>
       <c r="U33" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="V33" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="W33" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="V33" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="W33" s="4" t="s">
-        <v>141</v>
-      </c>
       <c r="X33" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Y33" s="4" t="s">
         <v>31</v>
       </c>
       <c r="Z33" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AA33" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="34" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E34" s="3">
         <v>15</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I34" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="J34" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="J34" s="4" t="s">
+      <c r="K34" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="L34" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="M34" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="N34" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="O34" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="K34" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="L34" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="M34" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="N34" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="O34" s="4" t="s">
+      <c r="P34" s="4" t="s">
         <v>138</v>
-      </c>
-      <c r="P34" s="4" t="s">
-        <v>139</v>
       </c>
       <c r="Q34" s="4">
         <v>25400</v>
@@ -3716,63 +3764,63 @@
         <v>13</v>
       </c>
       <c r="U34" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="V34" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="W34" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="V34" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="W34" s="4" t="s">
-        <v>141</v>
-      </c>
       <c r="X34" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Y34" s="4" t="s">
         <v>31</v>
       </c>
       <c r="Z34" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA34" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="AA34" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="35" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E35" s="3">
         <v>20</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I35" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="J35" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="J35" s="4" t="s">
+      <c r="K35" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="L35" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="M35" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="N35" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="O35" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="L35" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="M35" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="N35" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="O35" s="4" t="s">
+      <c r="P35" s="4" t="s">
         <v>138</v>
-      </c>
-      <c r="P35" s="4" t="s">
-        <v>139</v>
       </c>
       <c r="Q35" s="4">
         <v>25400</v>
@@ -3787,63 +3835,63 @@
         <v>13</v>
       </c>
       <c r="U35" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="V35" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="W35" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="V35" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="W35" s="4" t="s">
-        <v>141</v>
-      </c>
       <c r="X35" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Y35" s="4" t="s">
         <v>31</v>
       </c>
       <c r="Z35" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA35" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="AA35" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="36" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E36" s="3">
         <v>10</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K36" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="L36" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="L36" s="2" t="s">
+      <c r="M36" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="M36" s="2" t="s">
+      <c r="N36" s="4" t="s">
         <v>81</v>
-      </c>
-      <c r="N36" s="4" t="s">
-        <v>82</v>
       </c>
       <c r="O36" s="2" t="s">
         <v>39</v>
       </c>
       <c r="P36" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Q36" s="2">
         <v>8000</v>
@@ -3855,66 +3903,66 @@
         <v>25</v>
       </c>
       <c r="T36" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="U36" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="V36" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="W36" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="V36" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="W36" s="4" t="s">
+      <c r="X36" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y36" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z36" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="X36" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y36" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z36" s="7" t="s">
+      <c r="AA36" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="AA36" s="2" t="s">
-        <v>151</v>
-      </c>
     </row>
     <row r="37" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="3">
-        <v>-2.3174999999999999</v>
+      <c r="A37" s="3" t="s">
+        <v>293</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E37" s="3">
         <v>15</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K37" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="L37" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="L37" s="2" t="s">
+      <c r="M37" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="M37" s="2" t="s">
+      <c r="N37" s="4" t="s">
         <v>81</v>
-      </c>
-      <c r="N37" s="4" t="s">
-        <v>82</v>
       </c>
       <c r="O37" s="2" t="s">
         <v>39</v>
       </c>
       <c r="P37" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Q37" s="2">
         <v>8000</v>
@@ -3926,66 +3974,66 @@
         <v>25</v>
       </c>
       <c r="T37" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="U37" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="V37" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="W37" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="V37" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="W37" s="4" t="s">
+      <c r="X37" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y37" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z37" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="X37" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y37" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z37" s="7" t="s">
+      <c r="AA37" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="AA37" s="2" t="s">
-        <v>151</v>
-      </c>
     </row>
     <row r="38" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="4">
-        <v>-2.1349200000000002</v>
+      <c r="A38" s="4" t="s">
+        <v>294</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E38" s="4">
         <v>20</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K38" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="L38" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="L38" s="2" t="s">
+      <c r="M38" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="M38" s="2" t="s">
+      <c r="N38" s="4" t="s">
         <v>81</v>
-      </c>
-      <c r="N38" s="4" t="s">
-        <v>82</v>
       </c>
       <c r="O38" s="2" t="s">
         <v>39</v>
       </c>
       <c r="P38" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Q38" s="2">
         <v>8000</v>
@@ -3997,36 +4045,36 @@
         <v>25</v>
       </c>
       <c r="T38" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="U38" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="V38" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="W38" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="V38" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="W38" s="4" t="s">
+      <c r="X38" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y38" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z38" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="X38" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y38" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z38" s="7" t="s">
+      <c r="AA38" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="AA38" s="2" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="39" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
@@ -4036,31 +4084,31 @@
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
       <c r="H39" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="J39" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="I39" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="J39" s="3" t="s">
+      <c r="K39" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="L39" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="M39" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="N39" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="K39" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="L39" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="M39" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="N39" s="3" t="s">
+      <c r="O39" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="P39" s="3" t="s">
         <v>158</v>
-      </c>
-      <c r="O39" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="P39" s="3" t="s">
-        <v>159</v>
       </c>
       <c r="Q39" s="3">
         <v>50000</v>
@@ -4072,36 +4120,36 @@
         <v>23</v>
       </c>
       <c r="T39" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="U39" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="V39" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="W39" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="X39" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y39" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z39" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="X39" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y39" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z39" s="7" t="s">
+      <c r="AA39" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="AA39" s="2" t="s">
-        <v>151</v>
-      </c>
     </row>
     <row r="40" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="4">
-        <v>-2.9077999999999999</v>
+      <c r="A40" s="4" t="s">
+        <v>295</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
@@ -4111,22 +4159,22 @@
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
       <c r="H40" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="J40" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="I40" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="J40" s="2" t="s">
+      <c r="K40" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="K40" s="2" t="s">
-        <v>168</v>
       </c>
       <c r="L40" s="2" t="s">
         <v>36</v>
       </c>
       <c r="M40" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N40" s="2" t="s">
         <v>38</v>
@@ -4135,7 +4183,7 @@
         <v>39</v>
       </c>
       <c r="P40" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q40" s="2">
         <v>2900</v>
@@ -4147,36 +4195,36 @@
         <v>29</v>
       </c>
       <c r="T40" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="U40" s="4" t="s">
         <v>41</v>
       </c>
       <c r="V40" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="W40" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="X40" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y40" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z40" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="X40" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y40" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z40" s="7" t="s">
+      <c r="AA40" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="AA40" s="2" t="s">
-        <v>151</v>
-      </c>
     </row>
     <row r="41" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="4">
-        <v>-1.6029500000000001</v>
+      <c r="A41" s="4" t="s">
+        <v>296</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
@@ -4186,22 +4234,22 @@
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
       <c r="H41" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="J41" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="I41" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="J41" s="2" t="s">
+      <c r="K41" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="K41" s="2" t="s">
-        <v>168</v>
       </c>
       <c r="L41" s="2" t="s">
         <v>36</v>
       </c>
       <c r="M41" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N41" s="2" t="s">
         <v>38</v>
@@ -4210,7 +4258,7 @@
         <v>39</v>
       </c>
       <c r="P41" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q41" s="2">
         <v>2900</v>
@@ -4222,36 +4270,36 @@
         <v>29</v>
       </c>
       <c r="T41" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="U41" s="4" t="s">
         <v>41</v>
       </c>
       <c r="V41" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="W41" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="X41" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y41" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z41" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="X41" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y41" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z41" s="7" t="s">
+      <c r="AA41" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="AA41" s="2" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="42" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
@@ -4261,22 +4309,22 @@
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
       <c r="H42" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="J42" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="I42" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="J42" s="2" t="s">
+      <c r="K42" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="K42" s="2" t="s">
-        <v>168</v>
       </c>
       <c r="L42" s="2" t="s">
         <v>36</v>
       </c>
       <c r="M42" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N42" s="2" t="s">
         <v>38</v>
@@ -4285,7 +4333,7 @@
         <v>39</v>
       </c>
       <c r="P42" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q42" s="2">
         <v>2900</v>
@@ -4297,36 +4345,36 @@
         <v>29</v>
       </c>
       <c r="T42" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="U42" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="V42" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="W42" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="X42" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y42" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z42" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="AA42" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="B43" s="4" t="s">
         <v>170</v>
-      </c>
-      <c r="U42" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="V42" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="W42" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="X42" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y42" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z42" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="AA42" s="2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="43" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="4">
-        <v>-4.21035</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>171</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
@@ -4336,13 +4384,13 @@
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
       <c r="H43" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K43" s="2" t="s">
         <v>35</v>
@@ -4351,16 +4399,16 @@
         <v>36</v>
       </c>
       <c r="M43" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O43" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P43" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="Q43" s="2">
         <v>40100</v>
@@ -4378,42 +4426,42 @@
         <v>41</v>
       </c>
       <c r="V43" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="W43" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="X43" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y43" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z43" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="X43" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y43" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z43" s="7" t="s">
+      <c r="AA43" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="AA43" s="2" t="s">
-        <v>151</v>
-      </c>
     </row>
     <row r="44" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="3">
-        <v>-2.4074499999999999</v>
+      <c r="A44" s="3" t="s">
+        <v>298</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E44" s="3">
         <v>20</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K44" s="2" t="s">
         <v>35</v>
@@ -4422,16 +4470,16 @@
         <v>36</v>
       </c>
       <c r="M44" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O44" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P44" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="Q44" s="2">
         <v>40100</v>
@@ -4449,42 +4497,42 @@
         <v>41</v>
       </c>
       <c r="V44" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="W44" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="X44" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y44" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z44" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="X44" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y44" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z44" s="7" t="s">
+      <c r="AA44" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="AA44" s="2" t="s">
-        <v>151</v>
-      </c>
     </row>
     <row r="45" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="3">
-        <v>-1.1342300000000001</v>
+      <c r="A45" s="3" t="s">
+        <v>299</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E45" s="3">
         <v>30</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K45" s="2" t="s">
         <v>35</v>
@@ -4493,16 +4541,16 @@
         <v>36</v>
       </c>
       <c r="M45" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O45" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P45" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="Q45" s="2">
         <v>40100</v>
@@ -4520,42 +4568,42 @@
         <v>41</v>
       </c>
       <c r="V45" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="W45" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="X45" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y45" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z45" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="X45" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y45" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z45" s="7" t="s">
+      <c r="AA45" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="AA45" s="2" t="s">
-        <v>151</v>
-      </c>
     </row>
     <row r="46" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="3">
-        <v>-1.59091</v>
+      <c r="A46" s="3" t="s">
+        <v>300</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E46" s="3">
         <v>35</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K46" s="2" t="s">
         <v>35</v>
@@ -4564,16 +4612,16 @@
         <v>36</v>
       </c>
       <c r="M46" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N46" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O46" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P46" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="Q46" s="2">
         <v>40100</v>
@@ -4591,60 +4639,60 @@
         <v>41</v>
       </c>
       <c r="V46" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="W46" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="X46" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y46" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z46" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="X46" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y46" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z46" s="7" t="s">
+      <c r="AA46" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="AA46" s="2" t="s">
-        <v>151</v>
-      </c>
     </row>
     <row r="47" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="3">
-        <v>-5.0109899999999996</v>
+      <c r="A47" s="3" t="s">
+        <v>301</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E47" s="3">
         <v>10</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J47" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="K47" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="K47" s="4" t="s">
+      <c r="L47" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="L47" s="4" t="s">
-        <v>188</v>
-      </c>
       <c r="M47" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N47" s="4" t="s">
         <v>38</v>
       </c>
       <c r="O47" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P47" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="Q47" s="4">
         <v>2700</v>
@@ -4656,66 +4704,66 @@
         <v>37</v>
       </c>
       <c r="T47" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="U47" s="4" t="s">
         <v>41</v>
       </c>
       <c r="V47" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="W47" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="X47" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y47" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z47" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="X47" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y47" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z47" s="7" t="s">
+      <c r="AA47" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="AA47" s="2" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="48" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E48" s="3">
         <v>20</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J48" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="K48" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="K48" s="4" t="s">
+      <c r="L48" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="L48" s="4" t="s">
-        <v>188</v>
-      </c>
       <c r="M48" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N48" s="4" t="s">
         <v>38</v>
       </c>
       <c r="O48" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P48" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="Q48" s="4">
         <v>2700</v>
@@ -4727,66 +4775,66 @@
         <v>37</v>
       </c>
       <c r="T48" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="U48" s="4" t="s">
         <v>41</v>
       </c>
       <c r="V48" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="W48" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="X48" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y48" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z48" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="X48" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y48" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z48" s="7" t="s">
+      <c r="AA48" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="AA48" s="2" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="49" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E49" s="4">
         <v>30</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J49" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="K49" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="K49" s="4" t="s">
+      <c r="L49" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="L49" s="4" t="s">
-        <v>188</v>
-      </c>
       <c r="M49" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N49" s="4" t="s">
         <v>38</v>
       </c>
       <c r="O49" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P49" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="Q49" s="4">
         <v>2700</v>
@@ -4798,54 +4846,54 @@
         <v>37</v>
       </c>
       <c r="T49" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="U49" s="4" t="s">
         <v>41</v>
       </c>
       <c r="V49" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="W49" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="X49" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y49" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z49" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="X49" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y49" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z49" s="7" t="s">
+      <c r="AA49" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="AA49" s="2" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="50" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E50" s="3">
         <v>10</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J50" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="K50" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="K50" s="3" t="s">
-        <v>203</v>
-      </c>
       <c r="L50" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M50" s="4" t="s">
         <v>37</v>
@@ -4854,10 +4902,10 @@
         <v>38</v>
       </c>
       <c r="O50" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P50" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="Q50" s="3">
         <v>8500</v>
@@ -4875,48 +4923,48 @@
         <v>41</v>
       </c>
       <c r="V50" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="W50" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="X50" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y50" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z50" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="X50" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y50" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z50" s="7" t="s">
-        <v>150</v>
-      </c>
       <c r="AA50" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="51" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E51" s="3">
         <v>15</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J51" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="K51" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="K51" s="3" t="s">
-        <v>203</v>
-      </c>
       <c r="L51" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M51" s="4" t="s">
         <v>37</v>
@@ -4925,10 +4973,10 @@
         <v>38</v>
       </c>
       <c r="O51" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P51" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="Q51" s="3">
         <v>8500</v>
@@ -4946,48 +4994,48 @@
         <v>41</v>
       </c>
       <c r="V51" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="W51" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="X51" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y51" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z51" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="X51" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y51" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z51" s="7" t="s">
-        <v>150</v>
-      </c>
       <c r="AA51" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="52" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E52" s="3">
         <v>20</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J52" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="K52" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>203</v>
-      </c>
       <c r="L52" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M52" s="4" t="s">
         <v>37</v>
@@ -4996,10 +5044,10 @@
         <v>38</v>
       </c>
       <c r="O52" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P52" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="Q52" s="3">
         <v>8500</v>
@@ -5017,48 +5065,48 @@
         <v>41</v>
       </c>
       <c r="V52" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="W52" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="X52" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y52" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z52" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="X52" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y52" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z52" s="7" t="s">
-        <v>150</v>
-      </c>
       <c r="AA52" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="53" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E53" s="3">
         <v>25</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J53" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="K53" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="K53" s="3" t="s">
-        <v>203</v>
-      </c>
       <c r="L53" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M53" s="4" t="s">
         <v>37</v>
@@ -5067,10 +5115,10 @@
         <v>38</v>
       </c>
       <c r="O53" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P53" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="Q53" s="3">
         <v>8500</v>
@@ -5088,48 +5136,48 @@
         <v>41</v>
       </c>
       <c r="V53" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="W53" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="X53" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y53" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z53" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="X53" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y53" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z53" s="7" t="s">
-        <v>150</v>
-      </c>
       <c r="AA53" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="54" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E54" s="3">
         <v>30</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J54" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="K54" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>203</v>
-      </c>
       <c r="L54" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M54" s="4" t="s">
         <v>37</v>
@@ -5138,10 +5186,10 @@
         <v>38</v>
       </c>
       <c r="O54" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P54" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="Q54" s="3">
         <v>8500</v>
@@ -5159,42 +5207,42 @@
         <v>41</v>
       </c>
       <c r="V54" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="W54" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="X54" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y54" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z54" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="X54" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y54" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z54" s="7" t="s">
-        <v>150</v>
-      </c>
       <c r="AA54" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="55" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E55" s="3">
         <v>10</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K55" s="7" t="s">
         <v>35</v>
@@ -5203,19 +5251,19 @@
         <v>36</v>
       </c>
       <c r="M55" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N55" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P55" s="7">
         <v>2</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="R55" s="7">
         <v>0</v>
@@ -5224,48 +5272,48 @@
         <v>41</v>
       </c>
       <c r="T55" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="U55" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="V55" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="W55" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="X55" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y55" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z55" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="AA55" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="U55" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="V55" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="W55" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="X55" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y55" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z55" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="AA55" s="7" t="s">
-        <v>218</v>
-      </c>
     </row>
     <row r="56" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="3">
-        <v>-3.1570999999999998</v>
+      <c r="A56" s="3" t="s">
+        <v>302</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E56" s="3">
         <v>20</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K56" s="7" t="s">
         <v>35</v>
@@ -5274,19 +5322,19 @@
         <v>36</v>
       </c>
       <c r="M56" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N56" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P56" s="7">
         <v>2</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="R56" s="7">
         <v>0</v>
@@ -5295,48 +5343,48 @@
         <v>41</v>
       </c>
       <c r="T56" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="U56" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="V56" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="W56" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="X56" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y56" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z56" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="AA56" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="U56" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="V56" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="W56" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="X56" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y56" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z56" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="AA56" s="7" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="57" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E57" s="3">
         <v>30</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K57" s="7" t="s">
         <v>35</v>
@@ -5345,19 +5393,19 @@
         <v>36</v>
       </c>
       <c r="M57" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N57" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P57" s="7">
         <v>2</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="R57" s="7">
         <v>0</v>
@@ -5366,48 +5414,48 @@
         <v>41</v>
       </c>
       <c r="T57" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="U57" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="V57" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="W57" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="X57" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y57" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z57" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="AA57" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="U57" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="V57" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="W57" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="X57" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y57" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z57" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="AA57" s="7" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="58" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E58" s="3">
         <v>35</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K58" s="7" t="s">
         <v>35</v>
@@ -5416,19 +5464,19 @@
         <v>36</v>
       </c>
       <c r="M58" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N58" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O58" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P58" s="7">
         <v>2</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="R58" s="7">
         <v>0</v>
@@ -5437,66 +5485,66 @@
         <v>41</v>
       </c>
       <c r="T58" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="U58" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="V58" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="W58" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="X58" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y58" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z58" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="AA58" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="U58" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="V58" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="W58" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="X58" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y58" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z58" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="AA58" s="7" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="59" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E59" s="4">
         <v>15</v>
       </c>
       <c r="H59" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I59" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="J59" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="J59" s="7" t="s">
+      <c r="K59" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="K59" s="7" t="s">
+      <c r="L59" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="L59" s="7" t="s">
+      <c r="M59" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="M59" s="7" t="s">
+      <c r="N59" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="N59" s="7" t="s">
+      <c r="O59" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="O59" s="7" t="s">
+      <c r="P59" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="P59" s="7" t="s">
-        <v>233</v>
       </c>
       <c r="Q59" s="7">
         <v>7676</v>
@@ -5511,63 +5559,63 @@
         <v>41</v>
       </c>
       <c r="U59" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="V59" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="W59" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="V59" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="W59" s="7" t="s">
+      <c r="X59" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y59" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z59" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="X59" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y59" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z59" s="7" t="s">
+      <c r="AA59" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="AA59" s="7" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="60" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E60" s="4">
         <v>20</v>
       </c>
       <c r="H60" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I60" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="J60" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="J60" s="7" t="s">
+      <c r="K60" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="K60" s="7" t="s">
+      <c r="L60" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="L60" s="7" t="s">
+      <c r="M60" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="M60" s="7" t="s">
+      <c r="N60" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="N60" s="7" t="s">
+      <c r="O60" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="O60" s="7" t="s">
+      <c r="P60" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="P60" s="7" t="s">
-        <v>233</v>
       </c>
       <c r="Q60" s="7">
         <v>7676</v>
@@ -5582,63 +5630,63 @@
         <v>41</v>
       </c>
       <c r="U60" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="V60" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="W60" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="V60" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="W60" s="7" t="s">
+      <c r="X60" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y60" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z60" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="X60" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y60" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z60" s="7" t="s">
+      <c r="AA60" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="AA60" s="7" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="61" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E61" s="4">
         <v>25</v>
       </c>
       <c r="H61" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I61" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="J61" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="J61" s="7" t="s">
+      <c r="K61" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="K61" s="7" t="s">
+      <c r="L61" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="L61" s="7" t="s">
+      <c r="M61" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="M61" s="7" t="s">
+      <c r="N61" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="N61" s="7" t="s">
+      <c r="O61" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="O61" s="7" t="s">
+      <c r="P61" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="P61" s="7" t="s">
-        <v>233</v>
       </c>
       <c r="Q61" s="7">
         <v>7676</v>
@@ -5653,63 +5701,63 @@
         <v>41</v>
       </c>
       <c r="U61" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="V61" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="W61" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="V61" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="W61" s="7" t="s">
+      <c r="X61" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y61" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z61" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="X61" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y61" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z61" s="7" t="s">
+      <c r="AA61" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="AA61" s="7" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="62" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E62" s="2">
         <v>2</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I62" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="J62" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="J62" s="4" t="s">
+      <c r="K62" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="L62" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="L62" s="3" t="s">
+      <c r="M62" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="N62" s="4" t="s">
         <v>280</v>
-      </c>
-      <c r="M62" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="N62" s="4" t="s">
-        <v>281</v>
       </c>
       <c r="O62" s="4" t="s">
         <v>39</v>
       </c>
       <c r="P62" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="Q62" s="4">
         <v>7000</v>
@@ -5721,16 +5769,16 @@
         <v>15</v>
       </c>
       <c r="T62" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="U62" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="U62" s="4" t="s">
-        <v>283</v>
-      </c>
       <c r="V62" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="W62" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="X62" s="2" t="s">
         <v>30</v>
@@ -5739,48 +5787,48 @@
         <v>31</v>
       </c>
       <c r="Z62" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AA62" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="63" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E63" s="2">
         <v>6</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I63" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="J63" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="J63" s="4" t="s">
+      <c r="K63" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="L63" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="K63" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="L63" s="3" t="s">
+      <c r="M63" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="N63" s="4" t="s">
         <v>280</v>
-      </c>
-      <c r="M63" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="N63" s="4" t="s">
-        <v>281</v>
       </c>
       <c r="O63" s="4" t="s">
         <v>39</v>
       </c>
       <c r="P63" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="Q63" s="4">
         <v>7000</v>
@@ -5792,16 +5840,16 @@
         <v>15</v>
       </c>
       <c r="T63" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="U63" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="U63" s="4" t="s">
-        <v>283</v>
-      </c>
       <c r="V63" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="W63" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="X63" s="2" t="s">
         <v>30</v>
@@ -5810,48 +5858,48 @@
         <v>31</v>
       </c>
       <c r="Z63" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AA63" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="64" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E64" s="2">
         <v>10</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I64" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="J64" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="J64" s="4" t="s">
+      <c r="K64" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="L64" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="K64" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="L64" s="3" t="s">
+      <c r="M64" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="N64" s="4" t="s">
         <v>280</v>
-      </c>
-      <c r="M64" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="N64" s="4" t="s">
-        <v>281</v>
       </c>
       <c r="O64" s="4" t="s">
         <v>39</v>
       </c>
       <c r="P64" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="Q64" s="4">
         <v>7000</v>
@@ -5863,16 +5911,16 @@
         <v>15</v>
       </c>
       <c r="T64" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="U64" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="U64" s="4" t="s">
-        <v>283</v>
-      </c>
       <c r="V64" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="W64" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="X64" s="2" t="s">
         <v>30</v>
@@ -5881,48 +5929,48 @@
         <v>31</v>
       </c>
       <c r="Z64" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AA64" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="65" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E65" s="2">
         <v>14</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I65" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="J65" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="J65" s="4" t="s">
+      <c r="K65" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="L65" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="K65" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="L65" s="3" t="s">
+      <c r="M65" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="N65" s="4" t="s">
         <v>280</v>
-      </c>
-      <c r="M65" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="N65" s="4" t="s">
-        <v>281</v>
       </c>
       <c r="O65" s="4" t="s">
         <v>39</v>
       </c>
       <c r="P65" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="Q65" s="4">
         <v>7000</v>
@@ -5934,16 +5982,16 @@
         <v>15</v>
       </c>
       <c r="T65" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="U65" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="U65" s="4" t="s">
-        <v>283</v>
-      </c>
       <c r="V65" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="W65" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="X65" s="2" t="s">
         <v>30</v>
@@ -5952,48 +6000,48 @@
         <v>31</v>
       </c>
       <c r="Z65" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AA65" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="66" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E66" s="2">
         <v>18</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I66" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="J66" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="J66" s="4" t="s">
+      <c r="K66" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="L66" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="L66" s="3" t="s">
+      <c r="M66" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="N66" s="4" t="s">
         <v>280</v>
-      </c>
-      <c r="M66" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="N66" s="4" t="s">
-        <v>281</v>
       </c>
       <c r="O66" s="4" t="s">
         <v>39</v>
       </c>
       <c r="P66" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="Q66" s="4">
         <v>7000</v>
@@ -6005,16 +6053,16 @@
         <v>15</v>
       </c>
       <c r="T66" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="U66" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="U66" s="4" t="s">
-        <v>283</v>
-      </c>
       <c r="V66" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="W66" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="X66" s="2" t="s">
         <v>30</v>
@@ -6023,48 +6071,48 @@
         <v>31</v>
       </c>
       <c r="Z66" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AA66" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="67" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E67" s="2">
         <v>22</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I67" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="J67" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="J67" s="4" t="s">
+      <c r="K67" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="L67" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="K67" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="L67" s="3" t="s">
+      <c r="M67" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="N67" s="4" t="s">
         <v>280</v>
-      </c>
-      <c r="M67" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="N67" s="4" t="s">
-        <v>281</v>
       </c>
       <c r="O67" s="4" t="s">
         <v>39</v>
       </c>
       <c r="P67" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="Q67" s="4">
         <v>7000</v>
@@ -6076,16 +6124,16 @@
         <v>15</v>
       </c>
       <c r="T67" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="U67" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="U67" s="4" t="s">
-        <v>283</v>
-      </c>
       <c r="V67" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="W67" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="X67" s="2" t="s">
         <v>30</v>
@@ -6094,48 +6142,48 @@
         <v>31</v>
       </c>
       <c r="Z67" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AA67" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="68" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E68" s="2">
         <v>2</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J68" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="K68" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="L68" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="K68" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="L68" s="3" t="s">
+      <c r="M68" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="N68" s="4" t="s">
         <v>280</v>
-      </c>
-      <c r="M68" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="N68" s="4" t="s">
-        <v>281</v>
       </c>
       <c r="O68" s="4" t="s">
         <v>39</v>
       </c>
       <c r="P68" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Q68" s="3">
         <v>2900</v>
@@ -6150,13 +6198,13 @@
         <v>15</v>
       </c>
       <c r="U68" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="V68" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="W68" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="X68" s="2" t="s">
         <v>30</v>
@@ -6165,48 +6213,48 @@
         <v>31</v>
       </c>
       <c r="Z68" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AA68" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="69" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E69" s="2">
         <v>6</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I69" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J69" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="K69" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="L69" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="K69" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="L69" s="3" t="s">
+      <c r="M69" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="N69" s="4" t="s">
         <v>280</v>
-      </c>
-      <c r="M69" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="N69" s="4" t="s">
-        <v>281</v>
       </c>
       <c r="O69" s="4" t="s">
         <v>39</v>
       </c>
       <c r="P69" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Q69" s="3">
         <v>2900</v>
@@ -6221,13 +6269,13 @@
         <v>15</v>
       </c>
       <c r="U69" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="V69" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="W69" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="X69" s="2" t="s">
         <v>30</v>
@@ -6236,48 +6284,48 @@
         <v>31</v>
       </c>
       <c r="Z69" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AA69" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="70" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E70" s="2">
         <v>10</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I70" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J70" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="K70" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="L70" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="K70" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="L70" s="3" t="s">
+      <c r="M70" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="N70" s="4" t="s">
         <v>280</v>
-      </c>
-      <c r="M70" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="N70" s="4" t="s">
-        <v>281</v>
       </c>
       <c r="O70" s="4" t="s">
         <v>39</v>
       </c>
       <c r="P70" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Q70" s="3">
         <v>2900</v>
@@ -6292,13 +6340,13 @@
         <v>15</v>
       </c>
       <c r="U70" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="V70" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="W70" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="X70" s="2" t="s">
         <v>30</v>
@@ -6307,48 +6355,48 @@
         <v>31</v>
       </c>
       <c r="Z70" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AA70" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="71" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E71" s="2">
         <v>14</v>
       </c>
       <c r="H71" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I71" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J71" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="K71" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="L71" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="K71" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="L71" s="3" t="s">
+      <c r="M71" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="N71" s="4" t="s">
         <v>280</v>
-      </c>
-      <c r="M71" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="N71" s="4" t="s">
-        <v>281</v>
       </c>
       <c r="O71" s="4" t="s">
         <v>39</v>
       </c>
       <c r="P71" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Q71" s="3">
         <v>2900</v>
@@ -6363,13 +6411,13 @@
         <v>15</v>
       </c>
       <c r="U71" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="V71" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="W71" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="X71" s="2" t="s">
         <v>30</v>
@@ -6378,48 +6426,48 @@
         <v>31</v>
       </c>
       <c r="Z71" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AA71" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="72" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E72" s="2">
         <v>18</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I72" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J72" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="K72" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="L72" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="L72" s="3" t="s">
+      <c r="M72" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="N72" s="4" t="s">
         <v>280</v>
-      </c>
-      <c r="M72" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="N72" s="4" t="s">
-        <v>281</v>
       </c>
       <c r="O72" s="4" t="s">
         <v>39</v>
       </c>
       <c r="P72" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Q72" s="3">
         <v>2900</v>
@@ -6434,13 +6482,13 @@
         <v>15</v>
       </c>
       <c r="U72" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="V72" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="W72" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="X72" s="2" t="s">
         <v>30</v>
@@ -6449,48 +6497,48 @@
         <v>31</v>
       </c>
       <c r="Z72" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AA72" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="73" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E73" s="2">
         <v>22</v>
       </c>
       <c r="H73" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I73" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J73" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="K73" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="L73" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="K73" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="L73" s="3" t="s">
+      <c r="M73" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="N73" s="4" t="s">
         <v>280</v>
-      </c>
-      <c r="M73" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="N73" s="4" t="s">
-        <v>281</v>
       </c>
       <c r="O73" s="4" t="s">
         <v>39</v>
       </c>
       <c r="P73" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="Q73" s="3">
         <v>2900</v>
@@ -6505,13 +6553,13 @@
         <v>15</v>
       </c>
       <c r="U73" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="V73" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="W73" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="X73" s="2" t="s">
         <v>30</v>
@@ -6520,10 +6568,10 @@
         <v>31</v>
       </c>
       <c r="Z73" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AA73" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
   </sheetData>

--- a/data/metabolism_scaling_data.xlsx
+++ b/data/metabolism_scaling_data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1405" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1395" uniqueCount="302">
   <si>
     <t>a</t>
   </si>
@@ -780,9 +780,6 @@
   </si>
   <si>
     <t>3.2</t>
-  </si>
-  <si>
-    <t>12.72</t>
   </si>
   <si>
     <t>Fonds-etal-1992-Netherlands_Journal_of_Sea_Research</t>
@@ -1303,9 +1300,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L25" sqref="L25"/>
+      <selection pane="bottomLeft" activeCell="Q24" sqref="Q24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1324,7 +1321,7 @@
     <col min="14" max="14" width="32.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="25" style="2" bestFit="1" customWidth="1"/>
     <col min="18" max="21" width="19.42578125" style="2" customWidth="1"/>
     <col min="22" max="22" width="30.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="24.42578125" style="2" customWidth="1"/>
@@ -1483,7 +1480,7 @@
         <v>31</v>
       </c>
       <c r="Z2" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AA2" s="4" t="s">
         <v>32</v>
@@ -1554,7 +1551,7 @@
         <v>31</v>
       </c>
       <c r="Z3" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AA3" s="4" t="s">
         <v>32</v>
@@ -1562,7 +1559,7 @@
     </row>
     <row r="4" spans="1:27" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>42</v>
@@ -1625,7 +1622,7 @@
         <v>31</v>
       </c>
       <c r="Z4" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AA4" s="4" t="s">
         <v>32</v>
@@ -1633,7 +1630,7 @@
     </row>
     <row r="5" spans="1:27" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>43</v>
@@ -1696,7 +1693,7 @@
         <v>31</v>
       </c>
       <c r="Z5" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AA5" s="4" t="s">
         <v>32</v>
@@ -1704,7 +1701,7 @@
     </row>
     <row r="6" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>44</v>
@@ -1767,7 +1764,7 @@
         <v>31</v>
       </c>
       <c r="Z6" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AA6" s="4" t="s">
         <v>32</v>
@@ -1775,7 +1772,7 @@
     </row>
     <row r="7" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>45</v>
@@ -1838,7 +1835,7 @@
         <v>31</v>
       </c>
       <c r="Z7" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AA7" s="4" t="s">
         <v>32</v>
@@ -1846,7 +1843,7 @@
     </row>
     <row r="8" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>46</v>
@@ -1909,7 +1906,7 @@
         <v>31</v>
       </c>
       <c r="Z8" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AA8" s="4" t="s">
         <v>32</v>
@@ -2383,8 +2380,8 @@
       <c r="P15" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="Q15" s="4" t="s">
-        <v>90</v>
+      <c r="Q15" s="4">
+        <v>1800</v>
       </c>
       <c r="R15" s="4">
         <v>10</v>
@@ -2455,8 +2452,8 @@
       <c r="P16" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="Q16" s="4" t="s">
-        <v>90</v>
+      <c r="Q16" s="4">
+        <v>1800</v>
       </c>
       <c r="R16" s="4">
         <v>10</v>
@@ -2527,8 +2524,8 @@
       <c r="P17" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="Q17" s="4" t="s">
-        <v>90</v>
+      <c r="Q17" s="4">
+        <v>1800</v>
       </c>
       <c r="R17" s="4">
         <v>10</v>
@@ -2599,8 +2596,8 @@
       <c r="P18" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="Q18" s="4" t="s">
-        <v>90</v>
+      <c r="Q18" s="4">
+        <v>1800</v>
       </c>
       <c r="R18" s="4">
         <v>10</v>
@@ -2671,8 +2668,8 @@
       <c r="P19" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="Q19" s="4" t="s">
-        <v>252</v>
+      <c r="Q19" s="4">
+        <v>1800</v>
       </c>
       <c r="R19" s="4">
         <v>10</v>
@@ -2743,8 +2740,8 @@
       <c r="P20" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="Q20" s="4" t="s">
-        <v>90</v>
+      <c r="Q20" s="4">
+        <v>6000</v>
       </c>
       <c r="R20" s="4">
         <v>10</v>
@@ -2814,8 +2811,8 @@
       <c r="P21" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="Q21" s="4" t="s">
-        <v>90</v>
+      <c r="Q21" s="4">
+        <v>6000</v>
       </c>
       <c r="R21" s="4">
         <v>10</v>
@@ -2887,8 +2884,8 @@
       <c r="P22" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="Q22" s="4" t="s">
-        <v>90</v>
+      <c r="Q22" s="4">
+        <v>6000</v>
       </c>
       <c r="R22" s="4">
         <v>10</v>
@@ -2960,8 +2957,8 @@
       <c r="P23" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="Q23" s="4" t="s">
-        <v>90</v>
+      <c r="Q23" s="4">
+        <v>6000</v>
       </c>
       <c r="R23" s="4">
         <v>10</v>
@@ -3033,8 +3030,8 @@
       <c r="P24" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="Q24" s="4" t="s">
-        <v>90</v>
+      <c r="Q24" s="4">
+        <v>6000</v>
       </c>
       <c r="R24" s="4">
         <v>10</v>
@@ -3503,7 +3500,7 @@
     </row>
     <row r="31" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>122</v>
@@ -3909,7 +3906,7 @@
         <v>147</v>
       </c>
       <c r="V36" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="W36" s="4" t="s">
         <v>148</v>
@@ -3929,7 +3926,7 @@
     </row>
     <row r="37" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>144</v>
@@ -3980,7 +3977,7 @@
         <v>147</v>
       </c>
       <c r="V37" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="W37" s="4" t="s">
         <v>148</v>
@@ -4000,7 +3997,7 @@
     </row>
     <row r="38" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>145</v>
@@ -4051,7 +4048,7 @@
         <v>147</v>
       </c>
       <c r="V38" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="W38" s="4" t="s">
         <v>148</v>
@@ -4126,7 +4123,7 @@
         <v>159</v>
       </c>
       <c r="V39" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="W39" s="4" t="s">
         <v>148</v>
@@ -4146,7 +4143,7 @@
     </row>
     <row r="40" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>161</v>
@@ -4201,7 +4198,7 @@
         <v>41</v>
       </c>
       <c r="V40" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="W40" s="4" t="s">
         <v>148</v>
@@ -4221,7 +4218,7 @@
     </row>
     <row r="41" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>162</v>
@@ -4276,7 +4273,7 @@
         <v>41</v>
       </c>
       <c r="V41" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="W41" s="4" t="s">
         <v>148</v>
@@ -4351,7 +4348,7 @@
         <v>41</v>
       </c>
       <c r="V42" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="W42" s="4" t="s">
         <v>148</v>
@@ -4371,7 +4368,7 @@
     </row>
     <row r="43" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>170</v>
@@ -4426,7 +4423,7 @@
         <v>41</v>
       </c>
       <c r="V43" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="W43" s="4" t="s">
         <v>148</v>
@@ -4446,7 +4443,7 @@
     </row>
     <row r="44" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>173</v>
@@ -4497,7 +4494,7 @@
         <v>41</v>
       </c>
       <c r="V44" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="W44" s="4" t="s">
         <v>148</v>
@@ -4517,7 +4514,7 @@
     </row>
     <row r="45" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>174</v>
@@ -4568,7 +4565,7 @@
         <v>41</v>
       </c>
       <c r="V45" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="W45" s="4" t="s">
         <v>148</v>
@@ -4588,7 +4585,7 @@
     </row>
     <row r="46" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>175</v>
@@ -4639,7 +4636,7 @@
         <v>41</v>
       </c>
       <c r="V46" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="W46" s="4" t="s">
         <v>148</v>
@@ -4659,7 +4656,7 @@
     </row>
     <row r="47" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>178</v>
@@ -4710,7 +4707,7 @@
         <v>41</v>
       </c>
       <c r="V47" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="W47" s="4" t="s">
         <v>148</v>
@@ -4781,7 +4778,7 @@
         <v>41</v>
       </c>
       <c r="V48" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="W48" s="4" t="s">
         <v>148</v>
@@ -4852,7 +4849,7 @@
         <v>41</v>
       </c>
       <c r="V49" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="W49" s="4" t="s">
         <v>148</v>
@@ -4923,7 +4920,7 @@
         <v>41</v>
       </c>
       <c r="V50" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="W50" s="4" t="s">
         <v>148</v>
@@ -4994,7 +4991,7 @@
         <v>41</v>
       </c>
       <c r="V51" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="W51" s="4" t="s">
         <v>148</v>
@@ -5065,7 +5062,7 @@
         <v>41</v>
       </c>
       <c r="V52" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="W52" s="4" t="s">
         <v>148</v>
@@ -5136,7 +5133,7 @@
         <v>41</v>
       </c>
       <c r="V53" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="W53" s="4" t="s">
         <v>148</v>
@@ -5207,7 +5204,7 @@
         <v>41</v>
       </c>
       <c r="V54" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="W54" s="4" t="s">
         <v>148</v>
@@ -5278,7 +5275,7 @@
         <v>41</v>
       </c>
       <c r="V55" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="W55" s="4" t="s">
         <v>148</v>
@@ -5298,7 +5295,7 @@
     </row>
     <row r="56" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>209</v>
@@ -5349,7 +5346,7 @@
         <v>41</v>
       </c>
       <c r="V56" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="W56" s="4" t="s">
         <v>148</v>
@@ -5420,7 +5417,7 @@
         <v>41</v>
       </c>
       <c r="V57" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="W57" s="4" t="s">
         <v>148</v>
@@ -5491,7 +5488,7 @@
         <v>41</v>
       </c>
       <c r="V58" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="W58" s="4" t="s">
         <v>148</v>
@@ -5562,7 +5559,7 @@
         <v>233</v>
       </c>
       <c r="V59" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="W59" s="7" t="s">
         <v>234</v>
@@ -5633,7 +5630,7 @@
         <v>233</v>
       </c>
       <c r="V60" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="W60" s="7" t="s">
         <v>234</v>
@@ -5704,7 +5701,7 @@
         <v>233</v>
       </c>
       <c r="V61" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="W61" s="7" t="s">
         <v>234</v>
@@ -5724,34 +5721,34 @@
     </row>
     <row r="62" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E62" s="2">
         <v>2</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I62" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="J62" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="J62" s="4" t="s">
+      <c r="K62" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="L62" s="3" t="s">
         <v>278</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="L62" s="3" t="s">
-        <v>279</v>
       </c>
       <c r="M62" s="4" t="s">
         <v>229</v>
       </c>
       <c r="N62" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="O62" s="4" t="s">
         <v>39</v>
@@ -5769,10 +5766,10 @@
         <v>15</v>
       </c>
       <c r="T62" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="U62" s="4" t="s">
         <v>281</v>
-      </c>
-      <c r="U62" s="4" t="s">
-        <v>282</v>
       </c>
       <c r="V62" s="4" t="s">
         <v>148</v>
@@ -5787,42 +5784,42 @@
         <v>31</v>
       </c>
       <c r="Z62" s="7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AA62" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="63" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E63" s="2">
         <v>6</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I63" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="J63" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="J63" s="4" t="s">
+      <c r="K63" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="L63" s="3" t="s">
         <v>278</v>
-      </c>
-      <c r="K63" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="L63" s="3" t="s">
-        <v>279</v>
       </c>
       <c r="M63" s="4" t="s">
         <v>229</v>
       </c>
       <c r="N63" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="O63" s="4" t="s">
         <v>39</v>
@@ -5840,10 +5837,10 @@
         <v>15</v>
       </c>
       <c r="T63" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="U63" s="4" t="s">
         <v>281</v>
-      </c>
-      <c r="U63" s="4" t="s">
-        <v>282</v>
       </c>
       <c r="V63" s="4" t="s">
         <v>148</v>
@@ -5858,42 +5855,42 @@
         <v>31</v>
       </c>
       <c r="Z63" s="7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AA63" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="64" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E64" s="2">
         <v>10</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I64" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="J64" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="J64" s="4" t="s">
+      <c r="K64" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="L64" s="3" t="s">
         <v>278</v>
-      </c>
-      <c r="K64" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="L64" s="3" t="s">
-        <v>279</v>
       </c>
       <c r="M64" s="4" t="s">
         <v>229</v>
       </c>
       <c r="N64" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="O64" s="4" t="s">
         <v>39</v>
@@ -5911,10 +5908,10 @@
         <v>15</v>
       </c>
       <c r="T64" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="U64" s="4" t="s">
         <v>281</v>
-      </c>
-      <c r="U64" s="4" t="s">
-        <v>282</v>
       </c>
       <c r="V64" s="4" t="s">
         <v>148</v>
@@ -5929,42 +5926,42 @@
         <v>31</v>
       </c>
       <c r="Z64" s="7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AA64" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="65" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E65" s="2">
         <v>14</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I65" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="J65" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="J65" s="4" t="s">
+      <c r="K65" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="L65" s="3" t="s">
         <v>278</v>
-      </c>
-      <c r="K65" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="L65" s="3" t="s">
-        <v>279</v>
       </c>
       <c r="M65" s="4" t="s">
         <v>229</v>
       </c>
       <c r="N65" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="O65" s="4" t="s">
         <v>39</v>
@@ -5982,10 +5979,10 @@
         <v>15</v>
       </c>
       <c r="T65" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="U65" s="4" t="s">
         <v>281</v>
-      </c>
-      <c r="U65" s="4" t="s">
-        <v>282</v>
       </c>
       <c r="V65" s="4" t="s">
         <v>148</v>
@@ -6000,42 +5997,42 @@
         <v>31</v>
       </c>
       <c r="Z65" s="7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AA65" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="66" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E66" s="2">
         <v>18</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I66" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="J66" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="J66" s="4" t="s">
+      <c r="K66" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="L66" s="3" t="s">
         <v>278</v>
-      </c>
-      <c r="K66" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="L66" s="3" t="s">
-        <v>279</v>
       </c>
       <c r="M66" s="4" t="s">
         <v>229</v>
       </c>
       <c r="N66" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="O66" s="4" t="s">
         <v>39</v>
@@ -6053,10 +6050,10 @@
         <v>15</v>
       </c>
       <c r="T66" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="U66" s="4" t="s">
         <v>281</v>
-      </c>
-      <c r="U66" s="4" t="s">
-        <v>282</v>
       </c>
       <c r="V66" s="4" t="s">
         <v>148</v>
@@ -6071,42 +6068,42 @@
         <v>31</v>
       </c>
       <c r="Z66" s="7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AA66" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="67" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E67" s="2">
         <v>22</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I67" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="J67" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="J67" s="4" t="s">
+      <c r="K67" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="L67" s="3" t="s">
         <v>278</v>
-      </c>
-      <c r="K67" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="L67" s="3" t="s">
-        <v>279</v>
       </c>
       <c r="M67" s="4" t="s">
         <v>229</v>
       </c>
       <c r="N67" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="O67" s="4" t="s">
         <v>39</v>
@@ -6124,10 +6121,10 @@
         <v>15</v>
       </c>
       <c r="T67" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="U67" s="4" t="s">
         <v>281</v>
-      </c>
-      <c r="U67" s="4" t="s">
-        <v>282</v>
       </c>
       <c r="V67" s="4" t="s">
         <v>148</v>
@@ -6142,42 +6139,42 @@
         <v>31</v>
       </c>
       <c r="Z67" s="7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AA67" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="68" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E68" s="2">
         <v>2</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="J68" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="K68" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="L68" s="3" t="s">
         <v>278</v>
-      </c>
-      <c r="K68" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="L68" s="3" t="s">
-        <v>279</v>
       </c>
       <c r="M68" s="4" t="s">
         <v>229</v>
       </c>
       <c r="N68" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="O68" s="4" t="s">
         <v>39</v>
@@ -6198,7 +6195,7 @@
         <v>15</v>
       </c>
       <c r="U68" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="V68" s="4" t="s">
         <v>148</v>
@@ -6213,42 +6210,42 @@
         <v>31</v>
       </c>
       <c r="Z68" s="7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AA68" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="69" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E69" s="2">
         <v>6</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I69" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="J69" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="K69" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="L69" s="3" t="s">
         <v>278</v>
-      </c>
-      <c r="K69" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="L69" s="3" t="s">
-        <v>279</v>
       </c>
       <c r="M69" s="4" t="s">
         <v>229</v>
       </c>
       <c r="N69" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="O69" s="4" t="s">
         <v>39</v>
@@ -6269,7 +6266,7 @@
         <v>15</v>
       </c>
       <c r="U69" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="V69" s="4" t="s">
         <v>148</v>
@@ -6284,42 +6281,42 @@
         <v>31</v>
       </c>
       <c r="Z69" s="7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AA69" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="70" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E70" s="2">
         <v>10</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I70" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="J70" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="K70" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="L70" s="3" t="s">
         <v>278</v>
-      </c>
-      <c r="K70" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="L70" s="3" t="s">
-        <v>279</v>
       </c>
       <c r="M70" s="4" t="s">
         <v>229</v>
       </c>
       <c r="N70" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="O70" s="4" t="s">
         <v>39</v>
@@ -6340,7 +6337,7 @@
         <v>15</v>
       </c>
       <c r="U70" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="V70" s="4" t="s">
         <v>148</v>
@@ -6355,42 +6352,42 @@
         <v>31</v>
       </c>
       <c r="Z70" s="7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AA70" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="71" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E71" s="2">
         <v>14</v>
       </c>
       <c r="H71" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I71" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="J71" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="K71" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="L71" s="3" t="s">
         <v>278</v>
-      </c>
-      <c r="K71" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="L71" s="3" t="s">
-        <v>279</v>
       </c>
       <c r="M71" s="4" t="s">
         <v>229</v>
       </c>
       <c r="N71" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="O71" s="4" t="s">
         <v>39</v>
@@ -6411,7 +6408,7 @@
         <v>15</v>
       </c>
       <c r="U71" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="V71" s="4" t="s">
         <v>148</v>
@@ -6426,42 +6423,42 @@
         <v>31</v>
       </c>
       <c r="Z71" s="7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AA71" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="72" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E72" s="2">
         <v>18</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I72" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="J72" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="K72" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="L72" s="3" t="s">
         <v>278</v>
-      </c>
-      <c r="K72" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="L72" s="3" t="s">
-        <v>279</v>
       </c>
       <c r="M72" s="4" t="s">
         <v>229</v>
       </c>
       <c r="N72" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="O72" s="4" t="s">
         <v>39</v>
@@ -6482,7 +6479,7 @@
         <v>15</v>
       </c>
       <c r="U72" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="V72" s="4" t="s">
         <v>148</v>
@@ -6497,15 +6494,15 @@
         <v>31</v>
       </c>
       <c r="Z72" s="7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AA72" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="73" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>237</v>
@@ -6514,25 +6511,25 @@
         <v>22</v>
       </c>
       <c r="H73" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I73" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="J73" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="K73" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="L73" s="3" t="s">
         <v>278</v>
-      </c>
-      <c r="K73" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="L73" s="3" t="s">
-        <v>279</v>
       </c>
       <c r="M73" s="4" t="s">
         <v>229</v>
       </c>
       <c r="N73" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="O73" s="4" t="s">
         <v>39</v>
@@ -6553,7 +6550,7 @@
         <v>15</v>
       </c>
       <c r="U73" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="V73" s="4" t="s">
         <v>148</v>
@@ -6568,10 +6565,10 @@
         <v>31</v>
       </c>
       <c r="Z73" s="7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AA73" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
   </sheetData>
